--- a/SYSSCO No Intrnship list.xlsx
+++ b/SYSSCO No Intrnship list.xlsx
@@ -249,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -276,7 +277,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -586,12 +586,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="16.5" thickBot="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="16.5" thickBot="1">
@@ -679,13 +679,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B10" s="17">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7"/>
@@ -695,20 +695,20 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="2"/>
